--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,57 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +823,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36000</v>
       </c>
-      <c r="F12" s="3">
-        <v>9000</v>
-      </c>
       <c r="G12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I12" s="3">
         <v>3500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +962,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>41700</v>
       </c>
-      <c r="F17" s="3">
-        <v>12900</v>
-      </c>
       <c r="G17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1004,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-41700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-12900</v>
-      </c>
       <c r="G18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,28 +1050,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1046,28 +1082,31 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-44600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-12400</v>
-      </c>
       <c r="G21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-5000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1134,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-45000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1434,63 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>274700</v>
+      </c>
+      <c r="E41" s="3">
         <v>133500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1743,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>278700</v>
+      </c>
+      <c r="E46" s="3">
         <v>134300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>142900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,20 +1839,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1967,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2031,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E54" s="3">
         <v>139500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>147000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2093,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2155,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2187,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,20 +2251,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2379,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E66" s="3">
         <v>16900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2489,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>194000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>194000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>194000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2553,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-74900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-60700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2681,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-71400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-57600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-12800</v>
-      </c>
       <c r="G81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2642,19 +2840,19 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
-        <v>500</v>
-      </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-10100</v>
-      </c>
       <c r="G89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2858,28 +3078,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2945,28 +3174,31 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,28 +3336,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>150900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3400,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>134400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-11500</v>
-      </c>
       <c r="G102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,66 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F12" s="3">
         <v>7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="F12" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F17" s="3">
         <v>16400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>35700</v>
+      </c>
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,31 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,31 +1119,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,31 +1157,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-14000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-44600</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,40 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-14200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-14200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,63 +1575,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,26 +1791,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>247100</v>
+      </c>
+      <c r="F41" s="3">
         <v>274700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>133500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>142500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,26 +1939,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,26 +1977,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>251300</v>
+      </c>
+      <c r="F46" s="3">
         <v>278700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>134300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>142900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,26 +2053,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,26 +2205,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,26 +2281,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>252700</v>
+      </c>
+      <c r="F54" s="3">
         <v>280000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>139500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>147000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,26 +2355,28 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>12000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2389,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,26 +2427,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,26 +2465,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F60" s="3">
         <v>18700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2503,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,26 +2541,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,26 +2693,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F66" s="3">
         <v>18700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,17 +2838,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>194000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>194000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,26 +2899,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-91700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-74900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-60700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,26 +3051,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F76" s="3">
         <v>261300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-71400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-57600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,28 +3242,34 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3826,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>154900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>150900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+        <v>151500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="F102" s="3">
         <v>142700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
-        <v>134400</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>132600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>17200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E17" s="3">
         <v>25700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1153,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-31200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E41" s="3">
         <v>223400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>247100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>274700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E46" s="3">
         <v>226600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>251300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>278700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2220,20 +2340,20 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E54" s="3">
         <v>242600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>252700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>280000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>139500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>14900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E62" s="3">
         <v>15700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E66" s="3">
         <v>30600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>194000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>194000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>194000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-148700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E76" s="3">
         <v>212000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>233500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>261300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-71400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-57600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,16 +3450,16 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-4300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-4300</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,28 +4087,28 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>154900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>151500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>142700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>132600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>32800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F17" s="3">
         <v>28400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>25700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>35700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-25700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-35700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1220,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1267,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-25400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-31200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-16700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-14000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-36700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1346,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-25600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-31400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-16800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-25600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-31400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-14200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-36800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-25600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-16800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-36800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1784,93 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-25600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-16800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-36800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-25600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-16800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-36800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>179300</v>
+      </c>
+      <c r="F41" s="3">
         <v>198500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>223400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>247100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>274700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>133500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>142500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,31 +2094,37 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>96300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,31 +2141,37 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>186600</v>
+      </c>
+      <c r="F46" s="3">
         <v>202800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>226600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>251300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>278700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>134300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>142900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2329,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2376,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F48" s="3">
         <v>21100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>211400</v>
+      </c>
+      <c r="F54" s="3">
         <v>223900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>242600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>252700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>280000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>139500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>147000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>12000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2790,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,35 +2837,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>31600</v>
+      </c>
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F62" s="3">
         <v>16100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F66" s="3">
         <v>35100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>30600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>194000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>194000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-176300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-148700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-123100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-91700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-74900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-60700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>160800</v>
+      </c>
+      <c r="F76" s="3">
         <v>188700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>212000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>233500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>261300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-71400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-57600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-25600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-16800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-36800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,25 +3850,31 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-27700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4090,37 +4581,43 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>154900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>151500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-126200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-24800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-23800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-27600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>142700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>132600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E12" s="3">
         <v>11900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E17" s="3">
         <v>21000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1254,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-36700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E41" s="3">
         <v>53100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>198500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>223400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>247100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>274700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>133500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,17 +2187,20 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E42" s="3">
         <v>96300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2216,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2147,20 +2237,23 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,8 +2266,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E46" s="3">
         <v>156200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>202800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>226600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>251300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>278700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>134300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E48" s="3">
         <v>26600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2687,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2588,20 +2708,20 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E54" s="3">
         <v>182800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>211400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>223900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>242600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>252700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>280000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E62" s="3">
         <v>19000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>194000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>194000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>194000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-247600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-212400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-176300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-148700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-123100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E76" s="3">
         <v>152200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>160800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>188700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>233500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>261300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-71400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-57600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,13 +4024,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3856,16 +4055,16 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-99400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4587,28 +4833,28 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>154900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>151500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-126200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-27600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>142700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PYXS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>PYXS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E17" s="3">
         <v>18100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-36700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E41" s="3">
         <v>25900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>198500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>223400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>247100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>274700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>133500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2277,23 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E42" s="3">
         <v>116800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,8 +2309,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2251,12 +2344,12 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2362,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E46" s="3">
         <v>149300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>156200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>202800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>226600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>251300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>278700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>134300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E48" s="3">
         <v>25900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,31 +2648,34 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>22300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,8 +2821,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2711,20 +2831,20 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E54" s="3">
         <v>175200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>182800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>223900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>242600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>280000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E66" s="3">
         <v>30000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>194000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>194000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>194000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-270600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-247600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-231700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-212400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-176300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-148700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E76" s="3">
         <v>145300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>188700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>233500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>261300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-71400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-57600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,7 +4233,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4058,16 +4257,16 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-99400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,17 +5058,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4836,28 +5082,28 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>154900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>151500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-126200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>142700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
